--- a/similarities/split_global/harmonic_similarity_timestamps_248.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_248.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000')]</t>
+          <t>('0:00:00.800000', '0:00:10.540000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:25.580000', '0:01:34.240000')]</t>
+          <t>('0:00:30.050000', '0:00:38.220000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['G', 'C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+          <t>('0:00:06.774988', '0:00:12.870226')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:08.413696', '0:00:12.303038')]</t>
+          <t>('0:01:56.690000', '0:02:03.070000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=6.774988</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
+          <t>['A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:08.180000', '0:00:21.140000')]</t>
+          <t>('0:00:09.560000', '0:00:19.180000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:27.280000', '0:00:56.880000')]</t>
+          <t>('0:00:35.888000', '0:00:38.359000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=9.56</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=27.28']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=35.888</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
+          <t>['G:maj', 'A:min/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C', 'D:min', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:00.761383', '0:01:09.294716')]</t>
+          <t>('0:00:22.620000', '0:00:29.140000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:01:42.694000', '0:01:52.530000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=22.62</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=102.694</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:min', 'G#:dim7', 'A:min', 'G#:dim7'], ['E:7', 'A:min', 'G#:dim7', 'A:min']]</t>
+          <t>['C:min', 'F:7/C', 'A#']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A:dim7/A#', 'A#:min', 'A:dim7/A#'], ['F:7', 'A#:min', 'A:dim7/A#', 'A#:min']]</t>
+          <t>['B:min', 'E:7/G#', 'A:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:21.900000', '0:00:26.280000'), ('0:00:20.380000', '0:00:24.760000')]</t>
+          <t>('0:00:37.740000', '0:00:40.640000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:08.400000'), ('0:01:21.340000', '0:01:32.140000')]</t>
+          <t>('0:00:36.300000', '0:00:43.280000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=21.9', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=20.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=37.74</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=0.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=81.34']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=36.3</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min', 'F', 'G:7', 'C']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min/G', 'F:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:33.059000', '0:00:40.513000')]</t>
+          <t>('0:00:00.360000', '0:00:05.060000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:22.900000', '0:00:27.940000')]</t>
+          <t>('0:00:08.180000', '0:00:13.260000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=33.059']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=22.9']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:min', 'G#:dim7', 'A:min', 'G#:dim7'], ['E:7', 'A:min', 'G#:dim7', 'A:min']]</t>
+          <t>['A:min', 'E:7/B', 'A:min/C']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C'], ['G:7', 'C:min', 'B:dim7/C', 'C:min']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:21.900000', '0:00:26.280000'), ('0:00:20.380000', '0:00:24.760000')]</t>
+          <t>('0:00:00.340000', '0:00:02.340000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:02.360000', '0:00:10.160000'), ('0:01:25.240000', '0:01:37.020000')]</t>
+          <t>('0:00:17.120000', '0:00:24.900000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=21.9', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=20.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=2.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=85.24']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=17.12</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['E', 'A', 'E', 'B']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:02.640000', '0:00:19.060000')]</t>
+          <t>('0:00:55.580000', '0:01:06.200000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:08.660000', '0:01:23.380000')]</t>
+          <t>('0:00:07.284457', '0:00:22.098788')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=2.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=68.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:04.193106', '0:01:09.789115')]</t>
+          <t>('0:01:11.700000', '0:01:18.400000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:03:46.220000', '0:03:49.640000')]</t>
+          <t>('0:00:28.020000', '0:00:30.100000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=64.193106']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=71.7</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=226.22']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=28.02</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C/3', 'F', 'C/3']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:01:16.585782', '0:01:18.064810')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:01.421269', '0:00:26.162131')]</t>
+          <t>('0:00:59.220000', '0:01:06.880000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:50.130000', '0:00:59.490000')]</t>
+          <t>('0:00:23.980000', '0:00:31.920000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:06.820000')]</t>
+          <t>('0:00:08.980000', '0:00:22.060000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=50.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=23.98</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=8.98</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab']]</t>
+          <t>['C', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:04:21.828000', '0:04:35.800000')]</t>
+          <t>('0:00:31.527551', '0:00:47.026870')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:03:37.493000', '0:03:43.713000')]</t>
+          <t>('0:00:01.640000', '0:00:05.110000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=31.527551</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>isophonics_89</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:maj', 'C:maj', 'G/3']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5', 'A']]</t>
+          <t>['F#', 'B', 'F#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:03.220000', '0:02:07.580000')]</t>
+          <t>('0:00:05.146000', '0:00:09.474000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:07.703786')]</t>
+          <t>('0:00:14.928466', '0:00:21.522933')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:hdim7/A', 'A:min', 'B:hdim7/A', 'A:min']]</t>
+          <t>['G:maj', 'G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:53.540000', '0:01:02.380000')]</t>
+          <t>('0:04:12.620000', '0:04:19.880000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:05.940000', '0:00:25.280000')]</t>
+          <t>('0:00:19.960000', '0:00:23.020000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=53.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=252.62</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=5.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=19.96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj/F']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:01:27.280000', '0:01:32.660000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:01:36.760000', '0:01:43.240000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=87.28</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=96.76</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
